--- a/partial/sliding_window_results_window_2.xlsx
+++ b/partial/sliding_window_results_window_2.xlsx
@@ -465,16 +465,16 @@
         <v>49</v>
       </c>
       <c r="B2" t="n">
-        <v>29.15</v>
+        <v>29.15000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>28.45769926551294</v>
+        <v>29.39328575134277</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6923007344870626</v>
+        <v>0.2432857513427678</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4792803069713264</v>
+        <v>0.05918795680641502</v>
       </c>
     </row>
     <row r="3">
@@ -482,16 +482,16 @@
         <v>48</v>
       </c>
       <c r="B3" t="n">
-        <v>29.35</v>
+        <v>29.34999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>29.07298104513369</v>
+        <v>29.74392509460449</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2770189548663069</v>
+        <v>0.3939250946044979</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07673950135522098</v>
+        <v>0.1551769801591626</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>28.98648354733675</v>
+        <v>29.60677146911621</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3835164526632475</v>
+        <v>0.2367714691162064</v>
       </c>
       <c r="E4" t="n">
-        <v>0.147084869463401</v>
+        <v>0.05606072858744668</v>
       </c>
     </row>
     <row r="5">
@@ -516,16 +516,16 @@
         <v>46</v>
       </c>
       <c r="B5" t="n">
-        <v>29.54</v>
+        <v>29.53999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>28.90920431921203</v>
+        <v>29.0991268157959</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6307956807879727</v>
+        <v>-0.4408731842040936</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3979031909007619</v>
+        <v>0.1943691645502567</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>30.13803044742587</v>
+        <v>29.46976280212402</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5880304474258686</v>
+        <v>-0.08023719787597372</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3457798070998673</v>
+        <v>0.006438007922988162</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>29.81685577167374</v>
+        <v>29.63061332702637</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0668557716737368</v>
+        <v>-0.1193866729736328</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004469694206090827</v>
+        <v>0.01425317768371315</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>30.75050629839859</v>
+        <v>30.01024436950684</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9105062983985874</v>
+        <v>0.1702443695068325</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8290217194234976</v>
+        <v>0.02898314534877893</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>30.61713050576026</v>
+        <v>29.95468711853027</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8071305057602594</v>
+        <v>0.1446871185302712</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6514596533288121</v>
+        <v>0.02093436226859274</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>30.42709721190894</v>
+        <v>29.93261528015137</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5070972119089348</v>
+        <v>0.01261528015136548</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2571475823258151</v>
+        <v>0.0001591452932974359</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>29.69666364499381</v>
+        <v>29.89081382751465</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2833363550061918</v>
+        <v>-0.08918617248535554</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08027949006819475</v>
+        <v>0.00795417336258759</v>
       </c>
     </row>
     <row r="12">
@@ -635,16 +635,16 @@
         <v>39</v>
       </c>
       <c r="B12" t="n">
-        <v>30.04</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>29.97555144361638</v>
+        <v>30.07125663757324</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.06444855638362412</v>
+        <v>0.03125663757325015</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004153616419933177</v>
+        <v>0.0009769773923855127</v>
       </c>
     </row>
     <row r="13">
@@ -652,16 +652,16 @@
         <v>38</v>
       </c>
       <c r="B13" t="n">
-        <v>30.21</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>29.44071962030593</v>
+        <v>30.06707572937012</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7692803796940737</v>
+        <v>-0.1429242706298908</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5917923025822582</v>
+        <v>0.02042734713508626</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.22</v>
       </c>
       <c r="C14" t="n">
-        <v>29.86526551103273</v>
+        <v>30.21822166442871</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3547344889672672</v>
+        <v>-0.001778335571287926</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1258365576628682</v>
+        <v>3.162477404107953e-06</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.38</v>
       </c>
       <c r="C15" t="n">
-        <v>29.62894127289632</v>
+        <v>30.26735496520996</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7510587271036755</v>
+        <v>-0.1126450347900345</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5640892115585933</v>
+        <v>0.01268890386284809</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.44</v>
       </c>
       <c r="C16" t="n">
-        <v>30.36104736073625</v>
+        <v>30.5389461517334</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.07895263926375407</v>
+        <v>0.09894615173340071</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00623351924671248</v>
+        <v>0.009790340942849156</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.48</v>
       </c>
       <c r="C17" t="n">
-        <v>30.39606725906519</v>
+        <v>30.38221549987793</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0839327409348094</v>
+        <v>-0.09778450012207429</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00704470500082983</v>
+        <v>0.009561808464123947</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>30.69627960163829</v>
+        <v>30.40595817565918</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006279601638286891</v>
+        <v>-0.284041824340818</v>
       </c>
       <c r="E18" t="n">
-        <v>3.943339673557541e-05</v>
+        <v>0.08067975797486013</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.75</v>
       </c>
       <c r="C19" t="n">
-        <v>30.25991957428342</v>
+        <v>30.4942684173584</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4900804257165845</v>
+        <v>-0.2557315826416016</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2401788236705487</v>
+        <v>0.06539864236037829</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.94</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71466799285631</v>
+        <v>30.59984397888184</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2253320071436882</v>
+        <v>-0.3401560211181618</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05077451344340314</v>
+        <v>0.1157061187029393</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>30.95</v>
       </c>
       <c r="C21" t="n">
-        <v>31.03730775975343</v>
+        <v>30.71325492858887</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08730775975342908</v>
+        <v>-0.2367450714111357</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007622644913162491</v>
+        <v>0.05604822883746372</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.02</v>
       </c>
       <c r="C22" t="n">
-        <v>31.70770545872092</v>
+        <v>31.08200645446777</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6877054587209166</v>
+        <v>0.06200645446777742</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4729387979545463</v>
+        <v>0.003844800395664554</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.12</v>
       </c>
       <c r="C23" t="n">
-        <v>32.13337620006495</v>
+        <v>31.26099967956543</v>
       </c>
       <c r="D23" t="n">
-        <v>1.01337620006495</v>
+        <v>0.1409996795654251</v>
       </c>
       <c r="E23" t="n">
-        <v>1.026931322858079</v>
+        <v>0.01988090963755257</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.29976812191642</v>
+        <v>31.31937217712402</v>
       </c>
       <c r="D24" t="n">
-        <v>1.019768121916421</v>
+        <v>0.0393721771240223</v>
       </c>
       <c r="E24" t="n">
-        <v>1.039927022476944</v>
+        <v>0.001550168331485385</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.38</v>
       </c>
       <c r="C25" t="n">
-        <v>32.13093560450127</v>
+        <v>31.23164939880371</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7509356045012758</v>
+        <v>-0.1483506011962845</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5639042821076966</v>
+        <v>0.02200790087529905</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.58</v>
       </c>
       <c r="C26" t="n">
-        <v>32.54529895307395</v>
+        <v>31.44390678405762</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9652989530739546</v>
+        <v>-0.1360932159423811</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9318020688056728</v>
+        <v>0.01852136342553957</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>31.65</v>
+        <v>31.65000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>32.33996152515173</v>
+        <v>31.86181449890137</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6899615251517304</v>
+        <v>0.2118144989013615</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4760469061897019</v>
+        <v>0.04486538194483487</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>31.88</v>
       </c>
       <c r="C28" t="n">
-        <v>32.99971959255687</v>
+        <v>32.47047805786133</v>
       </c>
       <c r="D28" t="n">
-        <v>1.119719592556873</v>
+        <v>0.5904780578613327</v>
       </c>
       <c r="E28" t="n">
-        <v>1.253771965955729</v>
+        <v>0.3486643368156913</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.28</v>
       </c>
       <c r="C29" t="n">
-        <v>32.71683441576418</v>
+        <v>32.40864944458008</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4368344157641815</v>
+        <v>0.128649444580077</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1908243067960338</v>
+        <v>0.0165506795907623</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.45</v>
       </c>
       <c r="C30" t="n">
-        <v>32.81211361359365</v>
+        <v>32.52600479125977</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3621136135936425</v>
+        <v>0.07600479125976278</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1311262691498458</v>
+        <v>0.005776728294440113</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>32.85</v>
+        <v>32.84999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>33.00473111840309</v>
+        <v>32.81044387817383</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1547311184030917</v>
+        <v>-0.03955612182616619</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02394171900227159</v>
+        <v>0.001564686773926501</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>32.9</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>33.10571218941026</v>
+        <v>32.9732551574707</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2057121894102636</v>
+        <v>0.07325515747069744</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04231750487196417</v>
+        <v>0.005366318096056679</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>18</v>
       </c>
       <c r="B33" t="n">
-        <v>33.1</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>33.0779625320107</v>
+        <v>32.94234848022461</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02203746798929984</v>
+        <v>-0.1576515197753849</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0004856499953794152</v>
+        <v>0.02485400168748859</v>
       </c>
     </row>
     <row r="34">
@@ -1009,16 +1009,16 @@
         <v>17</v>
       </c>
       <c r="B34" t="n">
-        <v>33.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>34.06090076721547</v>
+        <v>33.70544815063477</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6609007672154732</v>
+        <v>0.3054481506347599</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4367898241060011</v>
+        <v>0.093298572726195</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>33.7</v>
       </c>
       <c r="C35" t="n">
-        <v>33.89679463998552</v>
+        <v>33.68313980102539</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1967946399855123</v>
+        <v>-0.01686019897461222</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03872813032702738</v>
+        <v>0.0002842663094635149</v>
       </c>
     </row>
     <row r="36">
@@ -1043,16 +1043,16 @@
         <v>15</v>
       </c>
       <c r="B36" t="n">
-        <v>34.1</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>33.98758366440517</v>
+        <v>33.84911727905273</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1124163355948298</v>
+        <v>-0.2508827209472599</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01263743250856939</v>
+        <v>0.0629421396699007</v>
       </c>
     </row>
     <row r="37">
@@ -1060,16 +1060,16 @@
         <v>14</v>
       </c>
       <c r="B37" t="n">
-        <v>34.4</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>34.27937838195894</v>
+        <v>34.4184684753418</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1206216180410564</v>
+        <v>0.01846847534179119</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01454957473884251</v>
+        <v>0.0003410845814503493</v>
       </c>
     </row>
     <row r="38">
@@ -1077,16 +1077,16 @@
         <v>13</v>
       </c>
       <c r="B38" t="n">
-        <v>34.9</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>34.74813211395009</v>
+        <v>34.99603652954102</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1518678860499065</v>
+        <v>0.09603652954100994</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0230638548132674</v>
+        <v>0.009223015006281275</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.3</v>
       </c>
       <c r="C39" t="n">
-        <v>35.88951697187024</v>
+        <v>35.76477432250977</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5895169718702462</v>
+        <v>0.4647743225097685</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3475302601230646</v>
+        <v>0.2160151708644143</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>35.7</v>
       </c>
       <c r="C40" t="n">
-        <v>36.26926468172613</v>
+        <v>36.0239372253418</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5692646817261249</v>
+        <v>0.323937225341794</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3240622778607463</v>
+        <v>0.1049353259621403</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.3</v>
       </c>
       <c r="C41" t="n">
-        <v>36.20843056628006</v>
+        <v>36.0843391418457</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.09156943371993265</v>
+        <v>-0.215660858154294</v>
       </c>
       <c r="E41" t="n">
-        <v>0.008384961191789138</v>
+        <v>0.04650960573984653</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>36.8</v>
       </c>
       <c r="C42" t="n">
-        <v>36.69659092684201</v>
+        <v>36.63283157348633</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1034090731579838</v>
+        <v>-0.167168426513669</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01069343641139324</v>
+        <v>0.02794528282305596</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.3</v>
       </c>
       <c r="C43" t="n">
-        <v>36.68193200156335</v>
+        <v>37.12261581420898</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.6180679984366506</v>
+        <v>-0.1773841857910128</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3820080506914875</v>
+        <v>0.03146514936874054</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>37.9</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>37.74507957354775</v>
+        <v>37.91189193725586</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1549204264522501</v>
+        <v>0.01189193725585369</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02400033853214704</v>
+        <v>0.000141418171697161</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.5</v>
       </c>
       <c r="C45" t="n">
-        <v>38.44558104190894</v>
+        <v>38.39858627319336</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.05441895809105546</v>
+        <v>-0.1014137268066406</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00296142299971605</v>
+        <v>0.01028474398481194</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>38.9</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>38.8650531928586</v>
+        <v>38.96462631225586</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0349468071414023</v>
+        <v>0.06462631225585369</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001221279329378367</v>
+        <v>0.004176560235791105</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>39.4</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>39.23220670737122</v>
+        <v>39.49670791625977</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1677932926287795</v>
+        <v>0.09670791625975994</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02815458905120723</v>
+        <v>0.009352421067304741</v>
       </c>
     </row>
     <row r="48">
@@ -1247,16 +1247,16 @@
         <v>3</v>
       </c>
       <c r="B48" t="n">
-        <v>39.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>39.65413175787145</v>
+        <v>39.54153060913086</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2458682421285445</v>
+        <v>-0.3584693908691463</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0604511924873806</v>
+        <v>0.1285003041900968</v>
       </c>
     </row>
     <row r="49">
@@ -1264,16 +1264,16 @@
         <v>2</v>
       </c>
       <c r="B49" t="n">
-        <v>40.1</v>
+        <v>40.09999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>39.70824032249832</v>
+        <v>40.08893966674805</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3917596775016818</v>
+        <v>-0.01106033325194744</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1534756449162218</v>
+        <v>0.0001223309716441342</v>
       </c>
     </row>
     <row r="50">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="B50" t="n">
-        <v>40.6</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>39.87678094783252</v>
+        <v>40.62304306030273</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.7232190521674795</v>
+        <v>0.02304306030274006</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5230457974180275</v>
+        <v>0.0005309826281157148</v>
       </c>
     </row>
     <row r="51">
@@ -1298,16 +1298,16 @@
         <v>0</v>
       </c>
       <c r="B51" t="n">
-        <v>40.9</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>40.15228882471894</v>
+        <v>40.96342086791992</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7477111752810615</v>
+        <v>0.06342086791991619</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5590720016401862</v>
+        <v>0.004022206487715454</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>3.570425863113588</v>
+        <v>0.1406257629394361</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>13.97177902834835</v>
+        <v>2.178335986790985</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.279435580566967</v>
+        <v>0.04356671973581969</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_2.xlsx
+++ b/partial/sliding_window_results_window_2.xlsx
@@ -468,13 +468,13 @@
         <v>29.15000000000001</v>
       </c>
       <c r="C2" t="n">
-        <v>29.39328575134277</v>
+        <v>29.40707969665527</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2432857513427678</v>
+        <v>0.2570796966552678</v>
       </c>
       <c r="E2" t="n">
-        <v>0.05918795680641502</v>
+        <v>0.06608997043236449</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.34999999999999</v>
       </c>
       <c r="C3" t="n">
-        <v>29.74392509460449</v>
+        <v>29.7198543548584</v>
       </c>
       <c r="D3" t="n">
-        <v>0.3939250946044979</v>
+        <v>0.3698543548584041</v>
       </c>
       <c r="E3" t="n">
-        <v>0.1551769801591626</v>
+        <v>0.1367922438077263</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>29.60677146911621</v>
+        <v>29.59825706481934</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2367714691162064</v>
+        <v>0.2282570648193314</v>
       </c>
       <c r="E4" t="n">
-        <v>0.05606072858744668</v>
+        <v>0.05210128763993645</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.53999999999999</v>
       </c>
       <c r="C5" t="n">
-        <v>29.0991268157959</v>
+        <v>29.15427207946777</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4408731842040936</v>
+        <v>-0.3857279205322186</v>
       </c>
       <c r="E5" t="n">
-        <v>0.1943691645502567</v>
+        <v>0.1487860286781096</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>29.46976280212402</v>
+        <v>29.47777366638184</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.08023719787597372</v>
+        <v>-0.07222633361816122</v>
       </c>
       <c r="E6" t="n">
-        <v>0.006438007922988162</v>
+        <v>0.005216643267921926</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>29.63061332702637</v>
+        <v>29.62782096862793</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1193866729736328</v>
+        <v>-0.1221790313720703</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01425317768371315</v>
+        <v>0.01492771570701734</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>30.01024436950684</v>
+        <v>29.95496940612793</v>
       </c>
       <c r="D8" t="n">
-        <v>0.1702443695068325</v>
+        <v>0.1149694061279263</v>
       </c>
       <c r="E8" t="n">
-        <v>0.02898314534877893</v>
+        <v>0.01321796434540805</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>29.95468711853027</v>
+        <v>29.90804862976074</v>
       </c>
       <c r="D9" t="n">
-        <v>0.1446871185302712</v>
+        <v>0.09804862976073991</v>
       </c>
       <c r="E9" t="n">
-        <v>0.02093436226859274</v>
+        <v>0.009613533797958653</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>29.93261528015137</v>
+        <v>29.90458488464355</v>
       </c>
       <c r="D10" t="n">
-        <v>0.01261528015136548</v>
+        <v>-0.01541511535644702</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0001591452932974359</v>
+        <v>0.0002376257814525687</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>29.89081382751465</v>
+        <v>29.88380241394043</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.08918617248535554</v>
+        <v>-0.09619758605957429</v>
       </c>
       <c r="E11" t="n">
-        <v>0.00795417336258759</v>
+        <v>0.009253975563689202</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.03999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>30.07125663757324</v>
+        <v>30.06172752380371</v>
       </c>
       <c r="D12" t="n">
-        <v>0.03125663757325015</v>
+        <v>0.0217275238037189</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0009769773923855127</v>
+        <v>0.0004720852906411712</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.21000000000001</v>
       </c>
       <c r="C13" t="n">
-        <v>30.06707572937012</v>
+        <v>30.07610130310059</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1429242706298908</v>
+        <v>-0.133898696899422</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02042734713508626</v>
+        <v>0.01792886103136329</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.22</v>
       </c>
       <c r="C14" t="n">
-        <v>30.21822166442871</v>
+        <v>30.21853446960449</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.001778335571287926</v>
+        <v>-0.001465530395506676</v>
       </c>
       <c r="E14" t="n">
-        <v>3.162477404107953e-06</v>
+        <v>2.147779340153953e-06</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.38</v>
       </c>
       <c r="C15" t="n">
-        <v>30.26735496520996</v>
+        <v>30.27169609069824</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1126450347900345</v>
+        <v>-0.1083039093017533</v>
       </c>
       <c r="E15" t="n">
-        <v>0.01268890386284809</v>
+        <v>0.0117297367700424</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.44</v>
       </c>
       <c r="C16" t="n">
-        <v>30.5389461517334</v>
+        <v>30.51827049255371</v>
       </c>
       <c r="D16" t="n">
-        <v>0.09894615173340071</v>
+        <v>0.07827049255371321</v>
       </c>
       <c r="E16" t="n">
-        <v>0.009790340942849156</v>
+        <v>0.006126270004600875</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.48</v>
       </c>
       <c r="C17" t="n">
-        <v>30.38221549987793</v>
+        <v>30.38699913024902</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.09778450012207429</v>
+        <v>-0.09300086975098054</v>
       </c>
       <c r="E17" t="n">
-        <v>0.009561808464123947</v>
+        <v>0.008649161774438847</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>30.40595817565918</v>
+        <v>30.41744041442871</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.284041824340818</v>
+        <v>-0.2725595855712868</v>
       </c>
       <c r="E18" t="n">
-        <v>0.08067975797486013</v>
+        <v>0.07428872768679161</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.75</v>
       </c>
       <c r="C19" t="n">
-        <v>30.4942684173584</v>
+        <v>30.51032829284668</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2557315826416016</v>
+        <v>-0.2396717071533203</v>
       </c>
       <c r="E19" t="n">
-        <v>0.06539864236037829</v>
+        <v>0.05744252720978693</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.94</v>
       </c>
       <c r="C20" t="n">
-        <v>30.59984397888184</v>
+        <v>30.6125316619873</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3401560211181618</v>
+        <v>-0.327468338012693</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1157061187029393</v>
+        <v>0.1072355124007954</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>30.95</v>
       </c>
       <c r="C21" t="n">
-        <v>30.71325492858887</v>
+        <v>30.73445701599121</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2367450714111357</v>
+        <v>-0.2155429840087919</v>
       </c>
       <c r="E21" t="n">
-        <v>0.05604822883746372</v>
+        <v>0.04645877795541432</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.02</v>
       </c>
       <c r="C22" t="n">
-        <v>31.08200645446777</v>
+        <v>31.0792064666748</v>
       </c>
       <c r="D22" t="n">
-        <v>0.06200645446777742</v>
+        <v>0.05920646667480867</v>
       </c>
       <c r="E22" t="n">
-        <v>0.003844800395664554</v>
+        <v>0.003505405696115229</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.12</v>
       </c>
       <c r="C23" t="n">
-        <v>31.26099967956543</v>
+        <v>31.26004600524902</v>
       </c>
       <c r="D23" t="n">
-        <v>0.1409996795654251</v>
+        <v>0.1400460052490189</v>
       </c>
       <c r="E23" t="n">
-        <v>0.01988090963755257</v>
+        <v>0.01961288358620823</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.28</v>
       </c>
       <c r="C24" t="n">
-        <v>31.31937217712402</v>
+        <v>31.31397819519043</v>
       </c>
       <c r="D24" t="n">
-        <v>0.0393721771240223</v>
+        <v>0.03397819519042855</v>
       </c>
       <c r="E24" t="n">
-        <v>0.001550168331485385</v>
+        <v>0.001154517748398862</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.38</v>
       </c>
       <c r="C25" t="n">
-        <v>31.23164939880371</v>
+        <v>31.26755332946777</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1483506011962845</v>
+        <v>-0.112446670532222</v>
       </c>
       <c r="E25" t="n">
-        <v>0.02200790087529905</v>
+        <v>0.01264425371378209</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.58</v>
       </c>
       <c r="C26" t="n">
-        <v>31.44390678405762</v>
+        <v>31.47345542907715</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1360932159423811</v>
+        <v>-0.1065445709228499</v>
       </c>
       <c r="E26" t="n">
-        <v>0.01852136342553957</v>
+        <v>0.01135174559313418</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.65000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>31.86181449890137</v>
+        <v>31.87383842468262</v>
       </c>
       <c r="D27" t="n">
-        <v>0.2118144989013615</v>
+        <v>0.2238384246826115</v>
       </c>
       <c r="E27" t="n">
-        <v>0.04486538194483487</v>
+        <v>0.05010364036439315</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>31.88</v>
       </c>
       <c r="C28" t="n">
-        <v>32.47047805786133</v>
+        <v>32.46493911743164</v>
       </c>
       <c r="D28" t="n">
-        <v>0.5904780578613327</v>
+        <v>0.5849391174316452</v>
       </c>
       <c r="E28" t="n">
-        <v>0.3486643368156913</v>
+        <v>0.342153771101712</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.28</v>
       </c>
       <c r="C29" t="n">
-        <v>32.40864944458008</v>
+        <v>32.43047714233398</v>
       </c>
       <c r="D29" t="n">
-        <v>0.128649444580077</v>
+        <v>0.1504771423339832</v>
       </c>
       <c r="E29" t="n">
-        <v>0.0165506795907623</v>
+        <v>0.02264337036500185</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.45</v>
       </c>
       <c r="C30" t="n">
-        <v>32.52600479125977</v>
+        <v>32.53198623657227</v>
       </c>
       <c r="D30" t="n">
-        <v>0.07600479125976278</v>
+        <v>0.08198623657226278</v>
       </c>
       <c r="E30" t="n">
-        <v>0.005776728294440113</v>
+        <v>0.006721742987283039</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.84999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>32.81044387817383</v>
+        <v>32.79877853393555</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03955612182616619</v>
+        <v>-0.05122146606444744</v>
       </c>
       <c r="E31" t="n">
-        <v>0.001564686773926501</v>
+        <v>0.002623638585791341</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>32.9732551574707</v>
+        <v>32.95109176635742</v>
       </c>
       <c r="D32" t="n">
-        <v>0.07325515747069744</v>
+        <v>0.05109176635741619</v>
       </c>
       <c r="E32" t="n">
-        <v>0.005366318096056679</v>
+        <v>0.002610368589520805</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.09999999999999</v>
       </c>
       <c r="C33" t="n">
-        <v>32.94234848022461</v>
+        <v>32.91666030883789</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1576515197753849</v>
+        <v>-0.1833396911621037</v>
       </c>
       <c r="E33" t="n">
-        <v>0.02485400168748859</v>
+        <v>0.03361344235541557</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.40000000000001</v>
       </c>
       <c r="C34" t="n">
-        <v>33.70544815063477</v>
+        <v>33.66152572631836</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3054481506347599</v>
+        <v>0.2615257263183537</v>
       </c>
       <c r="E34" t="n">
-        <v>0.093298572726195</v>
+        <v>0.06839570552634244</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>33.7</v>
       </c>
       <c r="C35" t="n">
-        <v>33.68313980102539</v>
+        <v>33.64871597290039</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.01686019897461222</v>
+        <v>-0.05128402709961222</v>
       </c>
       <c r="E35" t="n">
-        <v>0.0002842663094635149</v>
+        <v>0.00263005143555376</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.09999999999999</v>
       </c>
       <c r="C36" t="n">
-        <v>33.84911727905273</v>
+        <v>33.81267929077148</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2508827209472599</v>
+        <v>-0.2873207092285099</v>
       </c>
       <c r="E36" t="n">
-        <v>0.0629421396699007</v>
+        <v>0.08255318995157396</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.40000000000001</v>
       </c>
       <c r="C37" t="n">
-        <v>34.4184684753418</v>
+        <v>34.39601516723633</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01846847534179119</v>
+        <v>-0.003984832763677559</v>
       </c>
       <c r="E37" t="n">
-        <v>0.0003410845814503493</v>
+        <v>1.587889215447813e-05</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>34.90000000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>34.99603652954102</v>
+        <v>34.96896743774414</v>
       </c>
       <c r="D38" t="n">
-        <v>0.09603652954100994</v>
+        <v>0.06896743774413494</v>
       </c>
       <c r="E38" t="n">
-        <v>0.009223015006281275</v>
+        <v>0.004756507468991129</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.3</v>
       </c>
       <c r="C39" t="n">
-        <v>35.76477432250977</v>
+        <v>35.75102615356445</v>
       </c>
       <c r="D39" t="n">
-        <v>0.4647743225097685</v>
+        <v>0.451026153564456</v>
       </c>
       <c r="E39" t="n">
-        <v>0.2160151708644143</v>
+        <v>0.2034245911991482</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>35.7</v>
       </c>
       <c r="C40" t="n">
-        <v>36.0239372253418</v>
+        <v>36.00862503051758</v>
       </c>
       <c r="D40" t="n">
-        <v>0.323937225341794</v>
+        <v>0.3086250305175753</v>
       </c>
       <c r="E40" t="n">
-        <v>0.1049353259621403</v>
+        <v>0.09524940946197427</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.3</v>
       </c>
       <c r="C41" t="n">
-        <v>36.0843391418457</v>
+        <v>36.08853530883789</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.215660858154294</v>
+        <v>-0.2114646911621065</v>
       </c>
       <c r="E41" t="n">
-        <v>0.04650960573984653</v>
+        <v>0.0447173156082851</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>36.8</v>
       </c>
       <c r="C42" t="n">
-        <v>36.63283157348633</v>
+        <v>36.63264083862305</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.167168426513669</v>
+        <v>-0.1673591613769503</v>
       </c>
       <c r="E42" t="n">
-        <v>0.02794528282305596</v>
+        <v>0.02800908889679609</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.3</v>
       </c>
       <c r="C43" t="n">
-        <v>37.12261581420898</v>
+        <v>37.11385726928711</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1773841857910128</v>
+        <v>-0.1861427307128878</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03146514936874054</v>
+        <v>0.03464911619725065</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>37.90000000000001</v>
       </c>
       <c r="C44" t="n">
-        <v>37.91189193725586</v>
+        <v>37.90051651000977</v>
       </c>
       <c r="D44" t="n">
-        <v>0.01189193725585369</v>
+        <v>0.0005165100097599407</v>
       </c>
       <c r="E44" t="n">
-        <v>0.000141418171697161</v>
+        <v>2.66782590182214e-07</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.5</v>
       </c>
       <c r="C45" t="n">
-        <v>38.39858627319336</v>
+        <v>38.38759994506836</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1014137268066406</v>
+        <v>-0.1124000549316406</v>
       </c>
       <c r="E45" t="n">
-        <v>0.01028474398481194</v>
+        <v>0.01263377234863583</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>38.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>38.96462631225586</v>
+        <v>38.93680191040039</v>
       </c>
       <c r="D46" t="n">
-        <v>0.06462631225585369</v>
+        <v>0.03680191040038494</v>
       </c>
       <c r="E46" t="n">
-        <v>0.004176560235791105</v>
+        <v>0.001354380609117961</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.40000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>39.49670791625977</v>
+        <v>39.47134780883789</v>
       </c>
       <c r="D47" t="n">
-        <v>0.09670791625975994</v>
+        <v>0.07134780883788494</v>
       </c>
       <c r="E47" t="n">
-        <v>0.009352421067304741</v>
+        <v>0.005090509825967373</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>39.90000000000001</v>
       </c>
       <c r="C48" t="n">
-        <v>39.54153060913086</v>
+        <v>39.50369644165039</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3584693908691463</v>
+        <v>-0.3963035583496151</v>
       </c>
       <c r="E48" t="n">
-        <v>0.1285003041900968</v>
+        <v>0.1570565103605668</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.09999999999999</v>
       </c>
       <c r="C49" t="n">
-        <v>40.08893966674805</v>
+        <v>40.08430099487305</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.01106033325194744</v>
+        <v>-0.01569900512694744</v>
       </c>
       <c r="E49" t="n">
-        <v>0.0001223309716441342</v>
+        <v>0.000246458761975922</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.59999999999999</v>
       </c>
       <c r="C50" t="n">
-        <v>40.62304306030273</v>
+        <v>40.62380599975586</v>
       </c>
       <c r="D50" t="n">
-        <v>0.02304306030274006</v>
+        <v>0.02380599975586506</v>
       </c>
       <c r="E50" t="n">
-        <v>0.0005309826281157148</v>
+        <v>0.0005667256243762472</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>40.90000000000001</v>
       </c>
       <c r="C51" t="n">
-        <v>40.96342086791992</v>
+        <v>40.98260116577148</v>
       </c>
       <c r="D51" t="n">
-        <v>0.06342086791991619</v>
+        <v>0.08260116577147869</v>
       </c>
       <c r="E51" t="n">
-        <v>0.004022206487715454</v>
+        <v>0.006822952586807303</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.1406257629394361</v>
+        <v>-0.1701805114746264</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>2.178335986790985</v>
+        <v>2.043482009149664</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.04356671973581969</v>
+        <v>0.04086964018299327</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_2.xlsx
+++ b/partial/sliding_window_results_window_2.xlsx
@@ -468,13 +468,13 @@
         <v>29.15</v>
       </c>
       <c r="C2" t="n">
-        <v>28.45769926551294</v>
+        <v>29.66705863408808</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.6923007344870626</v>
+        <v>0.5170586340880767</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4792803069713264</v>
+        <v>0.2673496310850276</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.35</v>
       </c>
       <c r="C3" t="n">
-        <v>29.07298104513369</v>
+        <v>30.15988454009383</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2770189548663069</v>
+        <v>0.8098845400938259</v>
       </c>
       <c r="E3" t="n">
-        <v>0.07673950135522098</v>
+        <v>0.655912968282988</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.37</v>
       </c>
       <c r="C4" t="n">
-        <v>28.98648354733675</v>
+        <v>29.84494678620212</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3835164526632475</v>
+        <v>0.4749467862021177</v>
       </c>
       <c r="E4" t="n">
-        <v>0.147084869463401</v>
+        <v>0.2255744497237201</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.54</v>
       </c>
       <c r="C5" t="n">
-        <v>28.90920431921203</v>
+        <v>29.24820229833501</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.6307956807879727</v>
+        <v>-0.2917977016649935</v>
       </c>
       <c r="E5" t="n">
-        <v>0.3979031909007619</v>
+        <v>0.08514589869697256</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.55</v>
       </c>
       <c r="C6" t="n">
-        <v>30.13803044742587</v>
+        <v>29.77028807683576</v>
       </c>
       <c r="D6" t="n">
-        <v>0.5880304474258686</v>
+        <v>0.2202880768357574</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3457798070998673</v>
+        <v>0.04852683679599654</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>29.75</v>
       </c>
       <c r="C7" t="n">
-        <v>29.81685577167374</v>
+        <v>29.56727933301249</v>
       </c>
       <c r="D7" t="n">
-        <v>0.0668557716737368</v>
+        <v>-0.1827206669875103</v>
       </c>
       <c r="E7" t="n">
-        <v>0.004469694206090827</v>
+        <v>0.03338684214436065</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>29.84</v>
       </c>
       <c r="C8" t="n">
-        <v>30.75050629839859</v>
+        <v>30.08935803597058</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9105062983985874</v>
+        <v>0.2493580359705767</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8290217194234976</v>
+        <v>0.06217943010310343</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>29.81</v>
       </c>
       <c r="C9" t="n">
-        <v>30.61713050576026</v>
+        <v>29.98617848557869</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8071305057602594</v>
+        <v>0.1761784855786885</v>
       </c>
       <c r="E9" t="n">
-        <v>0.6514596533288121</v>
+        <v>0.03103885878080017</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>29.92</v>
       </c>
       <c r="C10" t="n">
-        <v>30.42709721190894</v>
+        <v>29.73711101533921</v>
       </c>
       <c r="D10" t="n">
-        <v>0.5070972119089348</v>
+        <v>-0.1828889846607886</v>
       </c>
       <c r="E10" t="n">
-        <v>0.2571475823258151</v>
+        <v>0.03344838071025417</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>29.98</v>
       </c>
       <c r="C11" t="n">
-        <v>29.69666364499381</v>
+        <v>29.69799928907306</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2833363550061918</v>
+        <v>-0.2820007109269405</v>
       </c>
       <c r="E11" t="n">
-        <v>0.08027949006819475</v>
+        <v>0.07952440096329984</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.04</v>
       </c>
       <c r="C12" t="n">
-        <v>29.97555144361638</v>
+        <v>29.72613621387445</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.06444855638362412</v>
+        <v>-0.3138637861255518</v>
       </c>
       <c r="E12" t="n">
-        <v>0.004153616419933177</v>
+        <v>0.0985104762410661</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.21</v>
       </c>
       <c r="C13" t="n">
-        <v>29.44071962030593</v>
+        <v>29.84922737223416</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.7692803796940737</v>
+        <v>-0.3607726277658401</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5917923025822582</v>
+        <v>0.1301568889450694</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.22</v>
       </c>
       <c r="C14" t="n">
-        <v>29.86526551103273</v>
+        <v>29.87118448474057</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3547344889672672</v>
+        <v>-0.3488155152594246</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1258365576628682</v>
+        <v>0.1216722636856978</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.38</v>
       </c>
       <c r="C15" t="n">
-        <v>29.62894127289632</v>
+        <v>29.98279341359101</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7510587271036755</v>
+        <v>-0.3972065864089913</v>
       </c>
       <c r="E15" t="n">
-        <v>0.5640892115585933</v>
+        <v>0.1577730722866835</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.44</v>
       </c>
       <c r="C16" t="n">
-        <v>30.36104736073625</v>
+        <v>30.26108524161952</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.07895263926375407</v>
+        <v>-0.1789147583804827</v>
       </c>
       <c r="E16" t="n">
-        <v>0.00623351924671248</v>
+        <v>0.03201049076634649</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>30.48</v>
       </c>
       <c r="C17" t="n">
-        <v>30.39606725906519</v>
+        <v>30.15278547970684</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.0839327409348094</v>
+        <v>-0.3272145202931647</v>
       </c>
       <c r="E17" t="n">
-        <v>0.00704470500082983</v>
+        <v>0.1070693422906859</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>30.69</v>
       </c>
       <c r="C18" t="n">
-        <v>30.69627960163829</v>
+        <v>30.19514282129561</v>
       </c>
       <c r="D18" t="n">
-        <v>0.006279601638286891</v>
+        <v>-0.4948571787043896</v>
       </c>
       <c r="E18" t="n">
-        <v>3.943339673557541e-05</v>
+        <v>0.2448836273152682</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>30.75</v>
       </c>
       <c r="C19" t="n">
-        <v>30.25991957428342</v>
+        <v>30.60131952062666</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.4900804257165845</v>
+        <v>-0.1486804793733363</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2401788236705487</v>
+        <v>0.02210588494668508</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>30.94</v>
       </c>
       <c r="C20" t="n">
-        <v>30.71466799285631</v>
+        <v>30.67738320357709</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2253320071436882</v>
+        <v>-0.2626167964229076</v>
       </c>
       <c r="E20" t="n">
-        <v>0.05077451344340314</v>
+        <v>0.06896758176343089</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>30.95</v>
       </c>
       <c r="C21" t="n">
-        <v>31.03730775975343</v>
+        <v>30.85919113487759</v>
       </c>
       <c r="D21" t="n">
-        <v>0.08730775975342908</v>
+        <v>-0.09080886512240482</v>
       </c>
       <c r="E21" t="n">
-        <v>0.007622644913162491</v>
+        <v>0.008246249984819112</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.02</v>
       </c>
       <c r="C22" t="n">
-        <v>31.70770545872092</v>
+        <v>31.09757034944756</v>
       </c>
       <c r="D22" t="n">
-        <v>0.6877054587209166</v>
+        <v>0.07757034944756214</v>
       </c>
       <c r="E22" t="n">
-        <v>0.4729387979545463</v>
+        <v>0.006017159113416904</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.12</v>
       </c>
       <c r="C23" t="n">
-        <v>32.13337620006495</v>
+        <v>31.27601048597176</v>
       </c>
       <c r="D23" t="n">
-        <v>1.01337620006495</v>
+        <v>0.156010485971759</v>
       </c>
       <c r="E23" t="n">
-        <v>1.026931322858079</v>
+        <v>0.02433927173314442</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>31.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.29976812191642</v>
+        <v>31.18419340973565</v>
       </c>
       <c r="D24" t="n">
-        <v>1.019768121916421</v>
+        <v>-0.09580659026435612</v>
       </c>
       <c r="E24" t="n">
-        <v>1.039927022476944</v>
+        <v>0.009178902738082216</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>31.38</v>
       </c>
       <c r="C25" t="n">
-        <v>32.13093560450127</v>
+        <v>31.20860949197808</v>
       </c>
       <c r="D25" t="n">
-        <v>0.7509356045012758</v>
+        <v>-0.1713905080219149</v>
       </c>
       <c r="E25" t="n">
-        <v>0.5639042821076966</v>
+        <v>0.02937470624001008</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>31.58</v>
       </c>
       <c r="C26" t="n">
-        <v>32.54529895307395</v>
+        <v>31.41963735202371</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9652989530739546</v>
+        <v>-0.1603626479762887</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9318020688056728</v>
+        <v>0.0257161788659671</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>31.65</v>
       </c>
       <c r="C27" t="n">
-        <v>32.33996152515173</v>
+        <v>31.95921673663635</v>
       </c>
       <c r="D27" t="n">
-        <v>0.6899615251517304</v>
+        <v>0.3092167366363476</v>
       </c>
       <c r="E27" t="n">
-        <v>0.4760469061897019</v>
+        <v>0.09561499021603237</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>31.88</v>
       </c>
       <c r="C28" t="n">
-        <v>32.99971959255687</v>
+        <v>32.68495774151191</v>
       </c>
       <c r="D28" t="n">
-        <v>1.119719592556873</v>
+        <v>0.8049577415119096</v>
       </c>
       <c r="E28" t="n">
-        <v>1.253771965955729</v>
+        <v>0.6479569656199542</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>32.28</v>
       </c>
       <c r="C29" t="n">
-        <v>32.71683441576418</v>
+        <v>32.92749544001664</v>
       </c>
       <c r="D29" t="n">
-        <v>0.4368344157641815</v>
+        <v>0.6474954400166339</v>
       </c>
       <c r="E29" t="n">
-        <v>0.1908243067960338</v>
+        <v>0.4192503448423344</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>32.45</v>
       </c>
       <c r="C30" t="n">
-        <v>32.81211361359365</v>
+        <v>33.06663339335906</v>
       </c>
       <c r="D30" t="n">
-        <v>0.3621136135936425</v>
+        <v>0.6166333933590522</v>
       </c>
       <c r="E30" t="n">
-        <v>0.1311262691498458</v>
+        <v>0.3802367418054996</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>32.85</v>
       </c>
       <c r="C31" t="n">
-        <v>33.00473111840309</v>
+        <v>33.23640948043696</v>
       </c>
       <c r="D31" t="n">
-        <v>0.1547311184030917</v>
+        <v>0.38640948043696</v>
       </c>
       <c r="E31" t="n">
-        <v>0.02394171900227159</v>
+        <v>0.1493122865715614</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>32.9</v>
       </c>
       <c r="C32" t="n">
-        <v>33.10571218941026</v>
+        <v>33.29977708230282</v>
       </c>
       <c r="D32" t="n">
-        <v>0.2057121894102636</v>
+        <v>0.3997770823028262</v>
       </c>
       <c r="E32" t="n">
-        <v>0.04231750487196417</v>
+        <v>0.1598217155345606</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>33.1</v>
       </c>
       <c r="C33" t="n">
-        <v>33.0779625320107</v>
+        <v>33.33975343964335</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.02203746798929984</v>
+        <v>0.2397534396433443</v>
       </c>
       <c r="E33" t="n">
-        <v>0.0004856499953794152</v>
+        <v>0.05748171182081473</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>33.4</v>
       </c>
       <c r="C34" t="n">
-        <v>34.06090076721547</v>
+        <v>33.71583827279082</v>
       </c>
       <c r="D34" t="n">
-        <v>0.6609007672154732</v>
+        <v>0.3158382727908204</v>
       </c>
       <c r="E34" t="n">
-        <v>0.4367898241060011</v>
+        <v>0.0997538145594887</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>33.7</v>
       </c>
       <c r="C35" t="n">
-        <v>33.89679463998552</v>
+        <v>33.74213643898327</v>
       </c>
       <c r="D35" t="n">
-        <v>0.1967946399855123</v>
+        <v>0.04213643898326325</v>
       </c>
       <c r="E35" t="n">
-        <v>0.03872813032702738</v>
+        <v>0.001775479490190267</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>34.1</v>
       </c>
       <c r="C36" t="n">
-        <v>33.98758366440517</v>
+        <v>33.83770196888512</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1124163355948298</v>
+        <v>-0.2622980311148808</v>
       </c>
       <c r="E36" t="n">
-        <v>0.01263743250856939</v>
+        <v>0.06880025712674298</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>34.4</v>
       </c>
       <c r="C37" t="n">
-        <v>34.27937838195894</v>
+        <v>34.26175461750775</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1206216180410564</v>
+        <v>-0.1382453824922436</v>
       </c>
       <c r="E37" t="n">
-        <v>0.01454957473884251</v>
+        <v>0.01911178578042674</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>34.9</v>
       </c>
       <c r="C38" t="n">
-        <v>34.74813211395009</v>
+        <v>34.53506441515873</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1518678860499065</v>
+        <v>-0.3649355848412696</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0230638548132674</v>
+        <v>0.1331779810834395</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>35.3</v>
       </c>
       <c r="C39" t="n">
-        <v>35.88951697187024</v>
+        <v>35.41163110728882</v>
       </c>
       <c r="D39" t="n">
-        <v>0.5895169718702462</v>
+        <v>0.1116311072888223</v>
       </c>
       <c r="E39" t="n">
-        <v>0.3475302601230646</v>
+        <v>0.01246150411452856</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>35.7</v>
       </c>
       <c r="C40" t="n">
-        <v>36.26926468172613</v>
+        <v>35.68715858908152</v>
       </c>
       <c r="D40" t="n">
-        <v>0.5692646817261249</v>
+        <v>-0.01284141091848312</v>
       </c>
       <c r="E40" t="n">
-        <v>0.3240622778607463</v>
+        <v>0.0001649018343773375</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>36.3</v>
       </c>
       <c r="C41" t="n">
-        <v>36.20843056628006</v>
+        <v>36.03467250596535</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.09156943371993265</v>
+        <v>-0.2653274940346506</v>
       </c>
       <c r="E41" t="n">
-        <v>0.008384961191789138</v>
+        <v>0.07039867909070756</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>36.8</v>
       </c>
       <c r="C42" t="n">
-        <v>36.69659092684201</v>
+        <v>36.6380964444557</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1034090731579838</v>
+        <v>-0.1619035555442991</v>
       </c>
       <c r="E42" t="n">
-        <v>0.01069343641139324</v>
+        <v>0.02621276129788596</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>37.3</v>
       </c>
       <c r="C43" t="n">
-        <v>36.68193200156335</v>
+        <v>36.75375374323595</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.6180679984366506</v>
+        <v>-0.54624625676405</v>
       </c>
       <c r="E43" t="n">
-        <v>0.3820080506914875</v>
+        <v>0.2983849730287365</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>37.9</v>
       </c>
       <c r="C44" t="n">
-        <v>37.74507957354775</v>
+        <v>37.77578137501172</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1549204264522501</v>
+        <v>-0.1242186249882806</v>
       </c>
       <c r="E44" t="n">
-        <v>0.02400033853214704</v>
+        <v>0.0154302667939791</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>38.5</v>
       </c>
       <c r="C45" t="n">
-        <v>38.44558104190894</v>
+        <v>38.49756896558319</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.05441895809105546</v>
+        <v>-0.002431034416808586</v>
       </c>
       <c r="E45" t="n">
-        <v>0.00296142299971605</v>
+        <v>5.909928335707863e-06</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>38.9</v>
       </c>
       <c r="C46" t="n">
-        <v>38.8650531928586</v>
+        <v>39.1968811618345</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.0349468071414023</v>
+        <v>0.2968811618344986</v>
       </c>
       <c r="E46" t="n">
-        <v>0.001221279329378367</v>
+        <v>0.08813842425220177</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>39.4</v>
       </c>
       <c r="C47" t="n">
-        <v>39.23220670737122</v>
+        <v>39.67226180578425</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1677932926287795</v>
+        <v>0.2722618057842467</v>
       </c>
       <c r="E47" t="n">
-        <v>0.02815458905120723</v>
+        <v>0.07412649088889889</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>39.9</v>
       </c>
       <c r="C48" t="n">
-        <v>39.65413175787145</v>
+        <v>39.84535288553736</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2458682421285445</v>
+        <v>-0.05464711446263948</v>
       </c>
       <c r="E48" t="n">
-        <v>0.0604511924873806</v>
+        <v>0.002986307119092821</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>40.1</v>
       </c>
       <c r="C49" t="n">
-        <v>39.70824032249832</v>
+        <v>40.27265069933905</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.3917596775016818</v>
+        <v>0.1726506993390515</v>
       </c>
       <c r="E49" t="n">
-        <v>0.1534756449162218</v>
+        <v>0.02980826398226357</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>40.6</v>
       </c>
       <c r="C50" t="n">
-        <v>39.87678094783252</v>
+        <v>40.5256658712525</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.7232190521674795</v>
+        <v>-0.07433412874750189</v>
       </c>
       <c r="E50" t="n">
-        <v>0.5230457974180275</v>
+        <v>0.005525562696650188</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>40.9</v>
       </c>
       <c r="C51" t="n">
-        <v>40.15228882471894</v>
+        <v>40.86033174156339</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.7477111752810615</v>
+        <v>-0.03966825843661326</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5590720016401862</v>
+        <v>0.001573570727393939</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>3.570425863113588</v>
+        <v>0.959122392995134</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>13.97177902834835</v>
+        <v>5.465621484408994</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.279435580566967</v>
+        <v>0.1093124296881799</v>
       </c>
     </row>
   </sheetData>
